--- a/sheets/ubuntu-chrome-best.xlsx
+++ b/sheets/ubuntu-chrome-best.xlsx
@@ -265,13 +265,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.9</c:v>
+                  <c:v>34.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,13 +349,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.6</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.6</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.9</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,10 +433,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.6</c:v>
+                  <c:v>10.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34.8</c:v>
@@ -447,11 +447,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="79567808"/>
-        <c:axId val="33918985"/>
+        <c:axId val="75030806"/>
+        <c:axId val="61032615"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79567808"/>
+        <c:axId val="75030806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33918985"/>
+        <c:crossAx val="61032615"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -487,7 +487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33918985"/>
+        <c:axId val="61032615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79567808"/>
+        <c:crossAx val="75030806"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,16 +576,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>74520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>384840</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -593,7 +593,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4048920" y="1243080"/>
+        <a:off x="4623120" y="1310040"/>
         <a:ext cx="5761080" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10.4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,13 +764,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>34.8</v>

--- a/sheets/ubuntu-chrome-best.xlsx
+++ b/sheets/ubuntu-chrome-best.xlsx
@@ -265,13 +265,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.4</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.8</c:v>
+                  <c:v>34.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,13 +349,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>34.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,10 +433,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.2</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.2</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34.8</c:v>
@@ -447,11 +447,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="75030806"/>
-        <c:axId val="61032615"/>
+        <c:axId val="57894753"/>
+        <c:axId val="31272039"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75030806"/>
+        <c:axId val="57894753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61032615"/>
+        <c:crossAx val="31272039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -487,7 +487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61032615"/>
+        <c:axId val="31272039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75030806"/>
+        <c:crossAx val="57894753"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,16 +576,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>732240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -593,8 +593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4623120" y="1310040"/>
-        <a:ext cx="5761080" cy="3241440"/>
+        <a:off x="3583440" y="239040"/>
+        <a:ext cx="5761440" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -721,7 +721,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,13 +764,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10.3</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>34.8</v>
